--- a/[GIS] Auswertungen/schwabenkinder_anno_auswertung.xlsx
+++ b/[GIS] Auswertungen/schwabenkinder_anno_auswertung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quqiu\PycharmProjects\schwabenkinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quqiu\PycharmProjects\schwabenkinder\[GIS] Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9619EFB-51B8-4F25-9FF8-F8B99F12AB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0797F61-29D6-442C-B257-9CBE11D4F118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="255" windowWidth="15285" windowHeight="15135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>ZAHL DER KINDER AUF DEN HÜTEKINDERMÄRKTEN</a:t>
+              <a:t>MINDESTZAHL DER KINDER AUF DEN HÜTEKINDERMÄRKTEN</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3794,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D710D87D-9379-497F-9572-BD1EAE1D1FAD}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="B2:G24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4389,7 +4389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4BFFB3-80AA-4410-B14D-ADD3880CBB2E}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
